--- a/db.xlsx
+++ b/db.xlsx
@@ -223,7 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -264,10 +264,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +581,7 @@
     <col min="2" max="2" style="4" width="35.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -597,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -613,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -621,7 +621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -629,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -653,7 +653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -661,7 +661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -669,7 +669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -677,7 +677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
